--- a/medicine/Enfance/Marie_Colmont/Marie_Colmont.xlsx
+++ b/medicine/Enfance/Marie_Colmont/Marie_Colmont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Colmont (née et décédée à Paris, 5 mai 1895- 6 décembre 1938), de son vrai nom Anne Marie Germaine Moréal de Brévans[1], est une auteure française d'œuvres pour la jeunesse. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Colmont (née et décédée à Paris, 5 mai 1895- 6 décembre 1938), de son vrai nom Anne Marie Germaine Moréal de Brévans, est une auteure française d'œuvres pour la jeunesse. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orpheline à dix ans, elle a par la suite vécu aux États-Unis et à Londres avec son mari, Henri Collin Delavaud, avant de rentrer en France en 1926. Son décès prématuré est dû à la tuberculose, dont étaient mortes sa mère et sa sœur.
 Marie Colmont a eu deux filles, Michelle, née en 1918, et Janine, en 1926.
@@ -546,7 +560,9 @@
           <t>Ouvrages publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste non exhaustive)
 Éditeurs divers :
@@ -602,7 +618,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nic Diament, Dictionnaire des écrivains français pour la jeunesse : 1914-1991, Paris, L'École des loisirs, 1993, 783 p. (ISBN 2-211-07125-2 et 978-2-211-07125-3)</t>
         </is>
